--- a/RB/2024/RB_Analysis.xlsx
+++ b/RB/2024/RB_Analysis.xlsx
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.279999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -625,50 +625,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Derrick Henry (BAL)</t>
+          <t>James Cook (BUF)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.22</v>
+        <v>7.21</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>57.6</v>
+        <v>60.5</v>
       </c>
       <c r="H4" t="n">
-        <v>19.2</v>
+        <v>20.2</v>
       </c>
       <c r="I4" t="n">
-        <v>18.7</v>
+        <v>13.7</v>
       </c>
       <c r="J4" t="n">
-        <v>93.7</v>
+        <v>62.7</v>
       </c>
       <c r="K4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.3</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>11.7</v>
+        <v>32.3</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -677,47 +677,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kenneth Walker III (SEA)</t>
+          <t>Derrick Henry (BAL)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.11</v>
+        <v>7.21</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9</v>
+        <v>57.6</v>
       </c>
       <c r="H5" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="J5" t="n">
-        <v>103</v>
+        <v>93.7</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>11.7</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -729,50 +729,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Breece Hall (NYJ)</t>
+          <t>Kenneth Walker III (SEA)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.07</v>
+        <v>7.11</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>61</v>
+        <v>18.9</v>
       </c>
       <c r="H6" t="n">
-        <v>20.3</v>
+        <v>18.9</v>
       </c>
       <c r="I6" t="n">
-        <v>15.3</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>56.7</v>
+        <v>103</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -781,47 +781,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>De'Von Achane (MIA)</t>
+          <t>Breece Hall (NYJ)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.04</v>
+        <v>7.09</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>61.3</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="I7" t="n">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>56.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M7" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="N7" t="n">
         <v>6.3</v>
       </c>
       <c r="O7" t="n">
-        <v>57.7</v>
+        <v>40</v>
       </c>
       <c r="P7" t="n">
         <v>0.3</v>
@@ -833,50 +833,50 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>James Cook (BUF)</t>
+          <t>De'Von Achane (MIA)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.97</v>
+        <v>7.08</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>41.8</v>
+        <v>61.3</v>
       </c>
       <c r="H8" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="J8" t="n">
-        <v>74.5</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="O8" t="n">
-        <v>24.5</v>
+        <v>57.7</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -885,47 +885,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jonathan Taylor (IND)</t>
+          <t>J.K. Dobbins (LAC)</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>6.93</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>52.8</v>
+        <v>51.4</v>
       </c>
       <c r="H9" t="n">
-        <v>17.6</v>
+        <v>17.1</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>103.3</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>4.7</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -937,47 +937,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>J.K. Dobbins (LAC)</t>
+          <t>Josh Jacobs (GB)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.93</v>
+        <v>6.86</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>51.4</v>
+        <v>31.3</v>
       </c>
       <c r="H10" t="n">
-        <v>17.1</v>
+        <v>10.4</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>20.7</v>
       </c>
       <c r="J10" t="n">
-        <v>103.3</v>
+        <v>92.7</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O10" t="n">
-        <v>4.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -989,50 +989,50 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aaron Jones (MIN)</t>
+          <t>Jonathan Taylor (IND)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.87</v>
+        <v>6.79</v>
       </c>
       <c r="D11" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>54.5</v>
+        <v>52.8</v>
       </c>
       <c r="H11" t="n">
-        <v>18.2</v>
+        <v>17.6</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>32.3</v>
+        <v>19</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1041,47 +1041,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kyren Williams (LAR)</t>
+          <t>Aaron Jones (MIN)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.71</v>
+        <v>6.74</v>
       </c>
       <c r="D12" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>61.2</v>
+        <v>54.5</v>
       </c>
       <c r="H12" t="n">
-        <v>20.4</v>
+        <v>18.2</v>
       </c>
       <c r="I12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>54.7</v>
+        <v>76</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
-        <v>19.3</v>
+        <v>32.3</v>
       </c>
       <c r="P12" t="n">
         <v>0.3</v>
@@ -1093,50 +1093,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jordan Mason (SF)</t>
+          <t>Kyren Williams (LAR)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.71</v>
+        <v>6.73</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E13" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>50.4</v>
+        <v>61.2</v>
       </c>
       <c r="H13" t="n">
-        <v>16.8</v>
+        <v>20.4</v>
       </c>
       <c r="I13" t="n">
-        <v>22.3</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>108</v>
+        <v>54.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>6.7</v>
+        <v>19.3</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -1145,47 +1145,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Joe Mixon (HOU)</t>
+          <t>Jordan Mason (SF)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.69</v>
+        <v>6.7</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>34.8</v>
+        <v>50.4</v>
       </c>
       <c r="H14" t="n">
-        <v>17.4</v>
+        <v>16.8</v>
       </c>
       <c r="I14" t="n">
-        <v>19.5</v>
+        <v>22.3</v>
       </c>
       <c r="J14" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="O14" t="n">
-        <v>22</v>
+        <v>6.7</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1197,47 +1197,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>David Montgomery (DET)</t>
+          <t>Joe Mixon (HOU)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.61</v>
+        <v>6.7</v>
       </c>
       <c r="D15" t="n">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>54.5</v>
+        <v>34.8</v>
       </c>
       <c r="H15" t="n">
-        <v>18.2</v>
+        <v>17.4</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="J15" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1249,47 +1249,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Brian Robinson Jr. (WAS)</t>
+          <t>David Montgomery (DET)</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>6.61</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>32.5</v>
+        <v>54.5</v>
       </c>
       <c r="H16" t="n">
-        <v>16.3</v>
+        <v>18.2</v>
       </c>
       <c r="I16" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>86.5</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0.5</v>
-      </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O16" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1301,50 +1301,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs (DET)</t>
+          <t>Brian Robinson Jr. (WAS)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.28</v>
+        <v>6.48</v>
       </c>
       <c r="D17" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>51.3</v>
+        <v>43.2</v>
       </c>
       <c r="H17" t="n">
-        <v>17.1</v>
+        <v>14.4</v>
       </c>
       <c r="I17" t="n">
-        <v>13.3</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>69</v>
+        <v>68.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.7</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M17" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="O17" t="n">
-        <v>25.3</v>
+        <v>18.7</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1353,44 +1353,44 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zach Charbonnet (SEA)</t>
+          <t>Jahmyr Gibbs (DET)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.17</v>
+        <v>6.28</v>
       </c>
       <c r="D18" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E18" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>55.7</v>
+        <v>51.3</v>
       </c>
       <c r="H18" t="n">
-        <v>18.6</v>
+        <v>17.1</v>
       </c>
       <c r="I18" t="n">
         <v>13.3</v>
       </c>
       <c r="J18" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
         <v>25.3</v>
@@ -1405,50 +1405,50 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Isiah Pacheco (KC)</t>
+          <t>Zach Charbonnet (SEA)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.96</v>
+        <v>6.19</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>31.9</v>
+        <v>55.7</v>
       </c>
       <c r="H19" t="n">
-        <v>16</v>
+        <v>18.6</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>13.3</v>
       </c>
       <c r="J19" t="n">
-        <v>67.5</v>
+        <v>47</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>27</v>
+        <v>25.3</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.81</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E20" t="n">
         <v>4.1</v>
@@ -1509,47 +1509,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Devin Singletary (NYG)</t>
+          <t>Isiah Pacheco (KC)</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.66</v>
+        <v>5.96</v>
       </c>
       <c r="D21" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>42.5</v>
+        <v>31.9</v>
       </c>
       <c r="H21" t="n">
-        <v>14.2</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>65.7</v>
+        <v>67.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>19.3</v>
+        <v>27</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.6</v>
+        <v>5.39</v>
       </c>
       <c r="D22" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E22" t="n">
         <v>4.1</v>
@@ -1613,50 +1613,50 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tony Pollard (TEN)</t>
+          <t>Chuba Hubbard (CAR)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.42</v>
+        <v>5.19</v>
       </c>
       <c r="D23" t="n">
         <v>-3</v>
       </c>
       <c r="E23" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>39.5</v>
+        <v>40.9</v>
       </c>
       <c r="H23" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="J23" t="n">
-        <v>52.7</v>
+        <v>64</v>
       </c>
       <c r="K23" t="n">
         <v>0.3</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
         <v>22.3</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24">
@@ -1665,50 +1665,50 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chuba Hubbard (CAR)</t>
+          <t>Rhamondre Stevenson (NE)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.35</v>
+        <v>5.18</v>
       </c>
       <c r="D24" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>40.9</v>
+        <v>38.9</v>
       </c>
       <c r="H24" t="n">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
-        <v>12.3</v>
+        <v>17.3</v>
       </c>
       <c r="J24" t="n">
-        <v>64</v>
+        <v>74.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="O24" t="n">
-        <v>22.3</v>
+        <v>5</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1717,47 +1717,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rhamondre Stevenson (NE)</t>
+          <t>Tony Pollard (TEN)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="D25" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E25" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>38.9</v>
+        <v>39.5</v>
       </c>
       <c r="H25" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I25" t="n">
         <v>13</v>
       </c>
-      <c r="I25" t="n">
-        <v>17.3</v>
-      </c>
       <c r="J25" t="n">
-        <v>74.7</v>
+        <v>52.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="N25" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>22.3</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1769,47 +1769,47 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Josh Jacobs (GB)</t>
+          <t>Zack Moss (CIN)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.14</v>
+        <v>4.97</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="E26" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>31.3</v>
+        <v>40.5</v>
       </c>
       <c r="H26" t="n">
-        <v>10.4</v>
+        <v>13.5</v>
       </c>
       <c r="I26" t="n">
-        <v>20.7</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>92.7</v>
+        <v>45.3</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="N26" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
-        <v>8.300000000000001</v>
+        <v>23</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1821,47 +1821,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Travis Etienne Jr. (JAC)</t>
+          <t>Devin Singletary (NYG)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.89</v>
+        <v>4.94</v>
       </c>
       <c r="D27" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
       <c r="G27" t="n">
-        <v>26.7</v>
+        <v>47.3</v>
       </c>
       <c r="H27" t="n">
-        <v>13.4</v>
+        <v>11.8</v>
       </c>
       <c r="I27" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>48</v>
+        <v>55.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M27" t="n">
         <v>2.5</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1873,47 +1873,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jerome Ford (CLE)</t>
+          <t>Travis Etienne Jr. (JAC)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.78</v>
+        <v>4.94</v>
       </c>
       <c r="D28" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>36.3</v>
+        <v>39.2</v>
       </c>
       <c r="H28" t="n">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="I28" t="n">
-        <v>9.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>48.3</v>
+        <v>54.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M28" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
         <v>4.3</v>
       </c>
       <c r="O28" t="n">
-        <v>19.3</v>
+        <v>12.7</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1925,47 +1925,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Najee Harris (PIT)</t>
+          <t>Jerome Ford (CLE)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.57</v>
+        <v>4.77</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E29" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>30.9</v>
+        <v>36.3</v>
       </c>
       <c r="H29" t="n">
-        <v>10.3</v>
+        <v>12.1</v>
       </c>
       <c r="I29" t="n">
-        <v>18.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>69.7</v>
+        <v>48.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M29" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="O29" t="n">
-        <v>10</v>
+        <v>19.3</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -1977,47 +1977,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Austin Ekeler (WAS)</t>
+          <t>Najee Harris (PIT)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.18</v>
+        <v>4.57</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>21.7</v>
+        <v>30.9</v>
       </c>
       <c r="H30" t="n">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>18.3</v>
       </c>
       <c r="J30" t="n">
-        <v>24</v>
+        <v>69.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N30" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>49.5</v>
+        <v>10</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2029,32 +2029,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Braelon Allen (NYJ)</t>
+          <t>Austin Ekeler (WAS)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.97</v>
+        <v>4.45</v>
       </c>
       <c r="D31" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E31" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>32.1</v>
+        <v>35.4</v>
       </c>
       <c r="H31" t="n">
-        <v>10.7</v>
+        <v>11.8</v>
       </c>
       <c r="I31" t="n">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>32</v>
+        <v>27.7</v>
       </c>
       <c r="K31" t="n">
         <v>0.3</v>
@@ -2063,16 +2063,16 @@
         <v>0.3</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>40.3</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2081,50 +2081,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Zack Moss (CIN)</t>
+          <t>Braelon Allen (NYJ)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="E32" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>32</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M32" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="H32" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="I32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>39</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.5</v>
-      </c>
       <c r="N32" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O32" t="n">
         <v>15</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33">
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
       <c r="D33" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
         <v>3.8</v>
@@ -2192,7 +2192,7 @@
         <v>3.87</v>
       </c>
       <c r="D34" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="E34" t="n">
         <v>2.3</v>
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D35" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E35" t="n">
         <v>2.1</v>
@@ -2289,47 +2289,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Emari Demercado (ARI)</t>
+          <t>Bucky Irving (TB)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.72</v>
+        <v>3.62</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>13.3</v>
+        <v>6.2</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>9.9</v>
+        <v>23.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>7.7</v>
       </c>
       <c r="I36" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>17.7</v>
+        <v>51.3</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>8.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2341,50 +2341,50 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bucky Irving (TB)</t>
+          <t>Rico Dowdle (DAL)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="D37" t="n">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="E37" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>23.2</v>
+        <v>35.8</v>
       </c>
       <c r="H37" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="I37" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J37" t="n">
-        <v>51.3</v>
+        <v>33.5</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
-        <v>9.300000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
@@ -2393,35 +2393,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Antonio Gibson (NE)</t>
+          <t>Emanuel Wilson (GB)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E38" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>19.8</v>
+        <v>24.2</v>
       </c>
       <c r="H38" t="n">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="I38" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>47.7</v>
+        <v>35</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2430,13 +2430,13 @@
         <v>1.3</v>
       </c>
       <c r="N38" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>12.3</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39">
@@ -2445,35 +2445,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Emanuel Wilson (GB)</t>
+          <t>Antonio Gibson (NE)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.35</v>
+        <v>3.37</v>
       </c>
       <c r="D39" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>24.2</v>
+        <v>19.8</v>
       </c>
       <c r="H39" t="n">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="J39" t="n">
-        <v>35</v>
+        <v>47.7</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>1.3</v>
       </c>
       <c r="N39" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="O39" t="n">
-        <v>12.3</v>
+        <v>5</v>
       </c>
       <c r="P39" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="D40" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E40" t="n">
         <v>5.8</v>
@@ -2549,32 +2549,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rico Dowdle (DAL)</t>
+          <t>Tyjae Spears (TEN)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="D41" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E41" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="H41" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="I41" t="n">
-        <v>7.7</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>29.3</v>
+        <v>16</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2583,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="N41" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="O41" t="n">
-        <v>19.7</v>
+        <v>25.3</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -2601,32 +2601,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tyjae Spears (TEN)</t>
+          <t>Javonte Williams (DEN)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="D42" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>22.4</v>
+        <v>20.9</v>
       </c>
       <c r="H42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
-        <v>16</v>
+        <v>17.3</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>3.3</v>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O42" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="D43" t="n">
         <v>-1</v>
@@ -2705,47 +2705,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Javonte Williams (DEN)</t>
+          <t>Ty Chandler (MIN)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.91</v>
+        <v>2.86</v>
       </c>
       <c r="D44" t="n">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>20.9</v>
+        <v>16.7</v>
       </c>
       <c r="H44" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>17.3</v>
+        <v>37.3</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>25.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2757,47 +2757,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ty Chandler (MIN)</t>
+          <t>Tyler Badie (DEN)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="D45" t="n">
+        <v>19</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>43</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O45" t="n">
         <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="H45" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J45" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>8.300000000000001</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2809,47 +2809,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ty Johnson (BUF)</t>
+          <t>Chase Brown (CIN)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="D46" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N46" t="n">
         <v>2</v>
       </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O46" t="n">
-        <v>16.5</v>
+        <v>6.3</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -2861,50 +2861,50 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tyler Badie (DEN)</t>
+          <t>Cam Akers (HOU)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.81</v>
+        <v>2.66</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>8.6</v>
+        <v>3.3</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>9.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="H47" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
-        <v>43</v>
+        <v>26.5</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P47" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2913,50 +2913,50 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ezekiel Elliott (DAL)</t>
+          <t>Ty Johnson (BUF)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="D48" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="E48" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
         <v>20.3</v>
       </c>
-      <c r="H48" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
+      <c r="P48" t="n">
         <v>0.3</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O48" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2965,32 +2965,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cam Akers (HOU)</t>
+          <t>Gus Edwards (LAC)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="H49" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>10.7</v>
       </c>
       <c r="J49" t="n">
-        <v>26.5</v>
+        <v>31.3</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2999,16 +2999,16 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="O49" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="P49" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3021,10 +3021,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="D50" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="E50" t="n">
         <v>3.8</v>
@@ -3069,47 +3069,47 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Zamir White (LV)</t>
+          <t>Miles Sanders (CAR)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.51</v>
+        <v>2.49</v>
       </c>
       <c r="D51" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E51" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>14.8</v>
+        <v>18.7</v>
       </c>
       <c r="H51" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="I51" t="n">
-        <v>10.7</v>
+        <v>6.3</v>
       </c>
       <c r="J51" t="n">
-        <v>34</v>
+        <v>19.7</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M51" t="n">
         <v>1.7</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O51" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3121,47 +3121,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Miles Sanders (CAR)</t>
+          <t>Zamir White (LV)</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>2.49</v>
       </c>
       <c r="D52" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E52" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>18.7</v>
+        <v>14.8</v>
       </c>
       <c r="H52" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="I52" t="n">
-        <v>6.3</v>
+        <v>10.7</v>
       </c>
       <c r="J52" t="n">
-        <v>19.7</v>
+        <v>34</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>1.7</v>
       </c>
       <c r="N52" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3173,47 +3173,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tyler Allgeier (ATL)</t>
+          <t>Ezekiel Elliott (DAL)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="D53" t="n">
-        <v>-3</v>
+        <v>-16</v>
       </c>
       <c r="E53" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>12.8</v>
+        <v>23.7</v>
       </c>
       <c r="H53" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="I53" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>35.3</v>
+        <v>20.2</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="N53" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3225,47 +3225,47 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tank Bigsby (JAC)</t>
+          <t>Ray Davis (BUF)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="E54" t="n">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>7.3</v>
+        <v>16.8</v>
       </c>
       <c r="H54" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="J54" t="n">
-        <v>36.5</v>
+        <v>21.3</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3277,32 +3277,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jaylen Warren (PIT)</t>
+          <t>Tyler Allgeier (ATL)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="D55" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="H55" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I55" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="J55" t="n">
-        <v>18</v>
+        <v>35.3</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="N55" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="O55" t="n">
-        <v>9.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3329,32 +3329,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chase Brown (CIN)</t>
+          <t>Carson Steele (KC)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="H56" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3363,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="N56" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="O56" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3381,47 +3381,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jaleel McLaughlin (DEN)</t>
+          <t>Tank Bigsby (JAC)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.06</v>
+        <v>2.23</v>
       </c>
       <c r="D57" t="n">
-        <v>-10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
-        <v>2.2</v>
+        <v>5.9</v>
       </c>
       <c r="F57" t="n">
         <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>14.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="J57" t="n">
-        <v>13.3</v>
+        <v>27.3</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3433,47 +3433,47 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Gus Edwards (LAC)</t>
+          <t>Emari Demercado (ARI)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="D58" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E58" t="n">
-        <v>2.9</v>
+        <v>13.3</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>10.7</v>
+        <v>1.3</v>
       </c>
       <c r="J58" t="n">
-        <v>31.3</v>
+        <v>17.7</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="N58" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3485,47 +3485,47 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D'Onta Foreman (CLE)</t>
+          <t>Jaleel McLaughlin (DEN)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="E59" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>6.6</v>
+        <v>14.8</v>
       </c>
       <c r="H59" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="I59" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>15.7</v>
+        <v>13.3</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3537,32 +3537,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ray Davis (BUF)</t>
+          <t>Jaylen Warren (PIT)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="E60" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>7.5</v>
+        <v>13.2</v>
       </c>
       <c r="H60" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="J60" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3571,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="O60" t="n">
-        <v>6.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3589,32 +3589,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Carson Steele (KC)</t>
+          <t>Jeff Wilson Jr. (MIA)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I61" t="n">
-        <v>8.699999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="J61" t="n">
-        <v>33</v>
+        <v>13.3</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3623,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="N61" t="n">
         <v>0.7</v>
       </c>
       <c r="O61" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3641,32 +3641,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Raheem Mostert (MIA)</t>
+          <t>D'Onta Foreman (CLE)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J62" t="n">
-        <v>9</v>
+        <v>15.7</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="O62" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3693,32 +3693,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jeff Wilson Jr. (MIA)</t>
+          <t>Kyle Juszczyk (SF)</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="H63" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="I63" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3727,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>4</v>
+        <v>21.7</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3745,47 +3745,47 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Trey Sermon (IND)</t>
+          <t>Cordarrelle Patterson (PIT)</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="D64" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H64" t="n">
         <v>3.1</v>
       </c>
       <c r="I64" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="J64" t="n">
-        <v>5.3</v>
+        <v>16.3</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="O64" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" t="n">
         <v>1.7</v>
@@ -3849,32 +3849,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kyle Juszczyk (SF)</t>
+          <t>Raheem Mostert (MIA)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="D66" t="n">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>12.5</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>3</v>
       </c>
       <c r="O66" t="n">
-        <v>21.7</v>
+        <v>10</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cordarrelle Patterson (PIT)</t>
+          <t>Hunter Luepke (DAL)</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="D67" t="n">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="E67" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>9.4</v>
+        <v>14.1</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="J67" t="n">
-        <v>16.3</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3935,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N67" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O67" t="n">
-        <v>5</v>
+        <v>18.2</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="D68" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="E68" t="n">
         <v>4.2</v>
@@ -4005,47 +4005,47 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>D'Ernest Johnson (JAC)</t>
+          <t>Tyrone Tracy Jr. (NYG)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="D69" t="n">
-        <v>14</v>
+        <v>-12</v>
       </c>
       <c r="E69" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
-      <c r="G69" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>26</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="D70" t="n">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="E70" t="n">
         <v>1.5</v>
@@ -4109,32 +4109,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hunter Luepke (DAL)</t>
+          <t>MarShawn Lloyd (GB)</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>1.54</v>
       </c>
       <c r="D71" t="n">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>9.9</v>
+        <v>2.8</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>19.7</v>
+        <v>3</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4161,47 +4161,47 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tyrone Tracy Jr. (NYG)</t>
+          <t>Trey Sermon (IND)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="D72" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E72" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
         <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>7.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="J72" t="n">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N72" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="O72" t="n">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4213,32 +4213,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Trey Benson (ARI)</t>
+          <t>D'Ernest Johnson (JAC)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="D73" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.9</v>
       </c>
-      <c r="F73" t="n">
-        <v>3</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2.1</v>
-      </c>
       <c r="I73" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="J73" t="n">
-        <v>10.3</v>
+        <v>19</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4247,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="O73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4265,32 +4265,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MarShawn Lloyd (GB)</t>
+          <t>Trey Benson (ARI)</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>1.33</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E74" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H74" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="J74" t="n">
-        <v>15</v>
+        <v>10.3</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4299,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="D75" t="n">
         <v>13</v>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Deuce Vaughn (DAL)</t>
+          <t>Audric Estime (DEN)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="D76" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="I76" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>6.7</v>
+        <v>14</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4403,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4421,32 +4421,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Audric Estime (DEN)</t>
+          <t>Kenneth Gainwell (PHI)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="D77" t="n">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="G77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
       <c r="J77" t="n">
-        <v>14</v>
+        <v>2.7</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4455,13 +4455,13 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4473,32 +4473,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kenneth Gainwell (PHI)</t>
+          <t>Blake Corum (LAR)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="D78" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>2.7</v>
+        <v>14</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -4525,47 +4525,47 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Blake Corum (LAR)</t>
+          <t>Alec Ingold (MIA)</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="D79" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
-      <c r="E79" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2</v>
-      </c>
-      <c r="G79" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>14</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4577,32 +4577,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Alec Ingold (MIA)</t>
+          <t>J.J. Taylor (HOU)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="D80" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="I80" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4611,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -4629,32 +4629,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J.J. Taylor (HOU)</t>
+          <t>Ronnie Rivers (LAR)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4663,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N81" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="D82" t="n">
         <v>4</v>
@@ -4733,47 +4733,47 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ronnie Rivers (LAR)</t>
+          <t>Deuce Vaughn (DAL)</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="D83" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E83" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O83" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4789,10 +4789,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="D84" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E84" t="n">
         <v>0.5</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
@@ -4889,32 +4889,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sione Vaki (DET)</t>
+          <t>Velus Jones Jr. (CHI)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="D86" t="n">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>2</v>
       </c>
-      <c r="G86" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4923,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="D87" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -4993,32 +4993,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Velus Jones Jr. (CHI)</t>
+          <t>Travis Homer (CHI)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J88" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5027,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5045,47 +5045,47 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Travis Homer (CHI)</t>
+          <t>Khalil Herbert (CHI)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="D89" t="n">
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>10</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J89" t="n">
         <v>5.3</v>
       </c>
-      <c r="F89" t="n">
-        <v>2</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>8</v>
-      </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5097,32 +5097,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mike Boone (CAR)</t>
+          <t>Sione Vaki (DET)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="E90" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5149,47 +5149,47 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Khalil Herbert (CHI)</t>
+          <t>Mike Boone (CAR)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>-34</v>
+        <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="I91" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="D92" t="n">
         <v>-5</v>
@@ -5253,32 +5253,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Kenny McIntosh (SEA)</t>
+          <t>Isaiah Davis (NYJ)</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="D93" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0.6</v>
       </c>
       <c r="I93" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -5305,51 +5305,35 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Isaiah Davis (NYJ)</t>
+          <t>AJ Dillon (GB)</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5357,51 +5341,35 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Eric Gray (NYG)</t>
+          <t>Jonathan Ward (PIT)</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>0.71</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O95" t="n">
-        <v>3</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5409,14 +5377,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Clyde Edwards-Helaire (KC)</t>
+          <t>Troy Hairston II (HOU)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -5445,14 +5413,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Dante Miller (NYG)</t>
+          <t>Aaron Shampklin (PIT)</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -5481,14 +5449,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Emani Bailey (KC)</t>
+          <t>Kimani Vidal (LAC)</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -5517,14 +5485,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cody Schrader (LAR)</t>
+          <t>Michael Wiley (WAS)</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -5553,14 +5521,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jonathon Brooks (CAR)</t>
+          <t>Dillon Johnson (CAR)</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -5589,14 +5557,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jack Colletto (PIT)</t>
+          <t>Dylan Laube (LV)</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -5629,10 +5597,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -5661,14 +5629,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Frank Gore Jr. (BUF)</t>
+          <t>Jack Colletto (PIT)</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -5697,14 +5665,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Elijah Mitchell (SF)</t>
+          <t>Rasheen Ali (BAL)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -5733,14 +5701,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Javian Hawkins (TEN)</t>
+          <t>Jase McClellan (ATL)</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D105" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -5769,14 +5737,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Gary Brightwell (CLE)</t>
+          <t>Michael Carter (ARI)</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D106" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -5805,14 +5773,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kenny Irons (CIN)</t>
+          <t>Kene Nwangwu (NYJ)</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D107" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -5841,14 +5809,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Samkon Gado (TEN)</t>
+          <t>Sincere McCormick (LV)</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D108" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -5877,51 +5845,35 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>C.J. Ham (MIN)</t>
+          <t>Shane Bannon (KC)</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="D109" t="n">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O109" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="P109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5929,51 +5881,35 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Chris Brooks (GB)</t>
+          <t>Xavier Omon (SF)</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="D110" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5981,51 +5917,35 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tyler Goodson (IND)</t>
+          <t>Taquan Mizzell (NYG)</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="D111" t="n">
-        <v>-20</v>
+        <v>-7</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O111" t="n">
-        <v>1</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6033,32 +5953,32 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sean Tucker (TB)</t>
+          <t>Jordan Mims (NO)</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="D112" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="F112" t="n">
         <v>3</v>
       </c>
       <c r="G112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.4</v>
       </c>
-      <c r="H112" t="n">
-        <v>0.1</v>
-      </c>
       <c r="I112" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -6085,32 +6005,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Jordan Mims (NO)</t>
+          <t>Eric Gray (NYG)</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="D113" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="E113" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I113" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -6119,13 +6039,13 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="P113" t="n">
         <v>0</v>
@@ -6137,32 +6057,32 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>British Brooks (HOU)</t>
+          <t>C.J. Ham (MIN)</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="D114" t="n">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I114" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -6171,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O114" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P114" t="n">
         <v>0</v>
@@ -6189,32 +6109,32 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>JaMycal Hasty (NE)</t>
+          <t>Chris Brooks (GB)</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="D115" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="E115" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I115" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -6241,35 +6161,51 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ke'Shawn Vaughn (SF)</t>
+          <t>Tyler Goodson (IND)</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="D116" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6277,35 +6213,51 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Darrynton Evans (BUF)</t>
+          <t>Kenny McIntosh (SEA)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>-14</v>
+        <v>-25</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -6313,35 +6265,51 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AJ Dillon (GB)</t>
+          <t>Sean Tucker (TB)</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="D118" t="n">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6349,35 +6317,51 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Patrick Taylor Jr. (SF)</t>
+          <t>British Brooks (HOU)</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="D119" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6385,7 +6369,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Craig Reynolds (DET)</t>
+          <t>Jeremy McNichols (WAS)</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -6395,22 +6379,22 @@
         <v>-17</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -6437,14 +6421,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mike Weber (NYG)</t>
+          <t>Ke'Shawn Vaughn (SF)</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D121" t="n">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -6473,20 +6457,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Trayveon Williams (CIN)</t>
+          <t>Darrynton Evans (BUF)</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D122" t="n">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -6494,30 +6478,14 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0</v>
-      </c>
-      <c r="P122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -6525,20 +6493,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Khari Blasingame (CHI)</t>
+          <t>Clyde Edwards-Helaire (KC)</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D123" t="n">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -6546,30 +6514,14 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0</v>
-      </c>
-      <c r="O123" t="n">
-        <v>0</v>
-      </c>
-      <c r="P123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -6577,14 +6529,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Andrew Beck (GB)</t>
+          <t>Patrick Taylor Jr. (SF)</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D124" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -6613,14 +6565,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Jakob Johnson (NYG)</t>
+          <t>Craig Reynolds (DET)</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D125" t="n">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -6665,14 +6617,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Jaret Patterson (LAC)</t>
+          <t>Mike Weber (NYG)</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D126" t="n">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -6701,14 +6653,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Reggie Gilliam (BUF)</t>
+          <t>Trayveon Williams (CIN)</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D127" t="n">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -6753,20 +6705,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Jonathan Ward (PIT)</t>
+          <t>Khari Blasingame (CHI)</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D128" t="n">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -6774,14 +6726,30 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6789,14 +6757,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jermar Jefferson (DET)</t>
+          <t>Andrew Beck (GB)</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D129" t="n">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -6825,20 +6793,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Evan Hull (IND)</t>
+          <t>Jakob Johnson (NYG)</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D130" t="n">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -6846,14 +6814,30 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6861,14 +6845,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Keaton Mitchell (BAL)</t>
+          <t>Jaret Patterson (LAC)</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D131" t="n">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -6897,20 +6881,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jabari Small (TEN)</t>
+          <t>Reggie Gilliam (BUF)</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D132" t="n">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -6918,14 +6902,30 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6933,20 +6933,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Kendre Miller (NO)</t>
+          <t>Raheem Blackshear (CAR)</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D133" t="n">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -6985,14 +6985,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Israel Abanikanda (NYJ)</t>
+          <t>Jermar Jefferson (DET)</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D134" t="n">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -7021,14 +7021,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Troy Hairston II (HOU)</t>
+          <t>Keaton Mitchell (BAL)</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D135" t="n">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -7057,14 +7057,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Aaron Shampklin (PIT)</t>
+          <t>Evan Hull (IND)</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D136" t="n">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -7093,14 +7093,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Brittain Brown (SEA)</t>
+          <t>Jabari Small (TEN)</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D137" t="n">
-        <v>-34</v>
+        <v>-33</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -7129,20 +7129,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kimani Vidal (LAC)</t>
+          <t>Kendre Miller (NO)</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D138" t="n">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -7150,14 +7150,30 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -7165,14 +7181,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Louis Rees-Zammit (JAC)</t>
+          <t>Israel Abanikanda (NYJ)</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D139" t="n">
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -7201,20 +7217,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Blake Watson (DEN)</t>
+          <t>Tyreik McAllister (LV)</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D140" t="n">
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -7222,14 +7238,30 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -7237,20 +7269,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Michael Wiley (WAS)</t>
+          <t>Julius Chestnut (TEN)</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D141" t="n">
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -7258,14 +7290,30 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -7273,14 +7321,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Jacob Kibodi (NO)</t>
+          <t>Brittain Brown (SEA)</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D142" t="n">
-        <v>-39</v>
+        <v>-38</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -7309,14 +7357,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dillon Johnson (CAR)</t>
+          <t>Dante Miller (NYG)</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D143" t="n">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -7345,14 +7393,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Dylan Laube (LV)</t>
+          <t>Louis Rees-Zammit (JAC)</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D144" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -7381,20 +7429,20 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Colson Yankoff (WAS)</t>
+          <t>Blake Watson (DEN)</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D145" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -7402,30 +7450,14 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0</v>
-      </c>
-      <c r="P145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -7433,14 +7465,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Jalen Jackson (JAC)</t>
+          <t>Emani Bailey (KC)</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D146" t="n">
-        <v>-43</v>
+        <v>-42</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -7469,14 +7501,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Terrell Jennings (NE)</t>
+          <t>Jacob Kibodi (NO)</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D147" t="n">
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -7505,14 +7537,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ian Wheeler (CHI)</t>
+          <t>Cody Schrader (LAR)</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D148" t="n">
-        <v>-45</v>
+        <v>-44</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -7541,14 +7573,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Chris Collier (BAL)</t>
+          <t>Jonathon Brooks (CAR)</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D149" t="n">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -7577,20 +7609,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Owen Wright (BAL)</t>
+          <t>Colson Yankoff (WAS)</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D150" t="n">
-        <v>-47</v>
+        <v>-46</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -7598,14 +7630,30 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -7613,14 +7661,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Deneric Prince (MIA)</t>
+          <t>Jalen Jackson (JAC)</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D151" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -7649,14 +7697,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Zavier Scott (MIN)</t>
+          <t>Terrell Jennings (NE)</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D152" t="n">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -7685,14 +7733,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Robert Burns (ATL)</t>
+          <t>Ian Wheeler (CHI)</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D153" t="n">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -7721,14 +7769,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Carlos Washington Jr. (ATL)</t>
+          <t>Chris Collier (BAL)</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D154" t="n">
-        <v>-51</v>
+        <v>-50</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -7757,20 +7805,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Scott Matlock (LAC)</t>
+          <t>Owen Wright (BAL)</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D155" t="n">
-        <v>-52</v>
+        <v>-51</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -7778,30 +7826,14 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0</v>
-      </c>
-      <c r="P155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -7809,14 +7841,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Rasheen Ali (BAL)</t>
+          <t>Deneric Prince (MIA)</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D156" t="n">
-        <v>-53</v>
+        <v>-52</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -7845,20 +7877,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Will Shipley (PHI)</t>
+          <t>Zavier Scott (MIN)</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D157" t="n">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -7866,30 +7898,14 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -7897,14 +7913,14 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>George Holani (SEA)</t>
+          <t>Robert Burns (ATL)</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D158" t="n">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -7933,14 +7949,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>D.J. Williams (TB)</t>
+          <t>Carlos Washington Jr. (ATL)</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D159" t="n">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -7969,20 +7985,20 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Keilan Robinson (JAC)</t>
+          <t>Scott Matlock (LAC)</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D160" t="n">
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -7990,14 +8006,30 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -8005,14 +8037,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Jase McClellan (ATL)</t>
+          <t>Frank Gore Jr. (BUF)</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D161" t="n">
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -8041,20 +8073,20 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chris Evans (CIN)</t>
+          <t>Will Shipley (PHI)</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D162" t="n">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -8062,14 +8094,30 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -8077,14 +8125,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Kendall Milton (CIN)</t>
+          <t>George Holani (SEA)</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D163" t="n">
-        <v>-60</v>
+        <v>-59</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -8113,14 +8161,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Michael Carter (ARI)</t>
+          <t>D.J. Williams (TB)</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D164" t="n">
-        <v>-61</v>
+        <v>-60</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -8149,14 +8197,14 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tyrion Davis-Price (PHI)</t>
+          <t>Keilan Robinson (JAC)</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D165" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -8185,20 +8233,20 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Chris Rodriguez Jr. (WAS)</t>
+          <t>Elijah Mitchell (SF)</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D166" t="n">
-        <v>-63</v>
+        <v>-62</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -8206,30 +8254,14 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -8237,14 +8269,14 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Malik Davis (DAL)</t>
+          <t>Chris Evans (CIN)</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D167" t="n">
-        <v>-64</v>
+        <v>-63</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -8273,14 +8305,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Kevin Harris (NE)</t>
+          <t>Javian Hawkins (TEN)</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D168" t="n">
-        <v>-65</v>
+        <v>-64</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -8309,20 +8341,20 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Keaontay Ingram (KC)</t>
+          <t>Kendall Milton (CIN)</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D169" t="n">
-        <v>-66</v>
+        <v>-65</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -8330,30 +8362,14 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0</v>
-      </c>
-      <c r="P169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -8361,20 +8377,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Avery Williams (ATL)</t>
+          <t>Tyrion Davis-Price (PHI)</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D170" t="n">
-        <v>-67</v>
+        <v>-66</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -8382,30 +8398,14 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0</v>
-      </c>
-      <c r="M170" t="n">
-        <v>0</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0</v>
-      </c>
-      <c r="P170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -8413,20 +8413,20 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Kene Nwangwu (NYJ)</t>
+          <t>Adam Prentice (NO)</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D171" t="n">
-        <v>-68</v>
+        <v>-67</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -8434,14 +8434,30 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -8449,14 +8465,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sincere McCormick (LV)</t>
+          <t>Malik Davis (DAL)</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D172" t="n">
-        <v>-69</v>
+        <v>-68</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -8485,14 +8501,14 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Jay Finley (CIN)</t>
+          <t>Kevin Harris (NE)</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D173" t="n">
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -8521,14 +8537,14 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Shane Bannon (KC)</t>
+          <t>Gary Brightwell (CLE)</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D174" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -8557,20 +8573,20 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Anthony Alridge (WAS)</t>
+          <t>Avery Williams (ATL)</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D175" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -8578,14 +8594,30 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8593,20 +8625,20 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Chad Simpson (WAS)</t>
+          <t>Keaontay Ingram (KC)</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D176" t="n">
-        <v>-73</v>
+        <v>-72</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -8614,14 +8646,30 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -8629,20 +8677,20 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Dantrell Savage (CAR)</t>
+          <t>Nick Bellore (WAS)</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D177" t="n">
-        <v>-74</v>
+        <v>-73</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -8650,14 +8698,30 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8665,14 +8729,14 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Xavier Omon (SF)</t>
+          <t>Jay Finley (CIN)</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D178" t="n">
-        <v>-75</v>
+        <v>-74</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -8701,14 +8765,14 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Garrett Mills (NE)</t>
+          <t>Kenny Irons (CIN)</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D179" t="n">
-        <v>-76</v>
+        <v>-75</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -8737,14 +8801,14 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Madison Hedgecock (NYG)</t>
+          <t>Anthony Alridge (WAS)</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D180" t="n">
-        <v>-77</v>
+        <v>-76</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -8773,14 +8837,14 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Taquan Mizzell (NYG)</t>
+          <t>Chad Simpson (WAS)</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D181" t="n">
-        <v>-78</v>
+        <v>-77</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -8809,14 +8873,14 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Kareem Hunt (KC)</t>
+          <t>Dantrell Savage (CAR)</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D182" t="n">
-        <v>-79</v>
+        <v>-78</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -8845,14 +8909,14 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Christian McCaffrey (SF)</t>
+          <t>Samkon Gado (TEN)</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D183" t="n">
-        <v>-80</v>
+        <v>-79</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -8881,14 +8945,14 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Dalvin Cook (DAL)</t>
+          <t>Garrett Mills (NE)</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D184" t="n">
-        <v>-81</v>
+        <v>-80</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -8917,14 +8981,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Nyheim Hines (CLE)</t>
+          <t>Madison Hedgecock (NYG)</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D185" t="n">
-        <v>-82</v>
+        <v>-81</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -8953,14 +9017,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Nick Chubb (CLE)</t>
+          <t>Kareem Hunt (KC)</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D186" t="n">
-        <v>-83</v>
+        <v>-82</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -8989,14 +9053,14 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Royce Freeman (CLE)</t>
+          <t>Christian McCaffrey (SF)</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D187" t="n">
-        <v>-84</v>
+        <v>-83</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -9025,20 +9089,20 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Patrick Ricard (BAL)</t>
+          <t>Dalvin Cook (DAL)</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D188" t="n">
-        <v>-85</v>
+        <v>-84</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -9046,30 +9110,14 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0</v>
-      </c>
-      <c r="L188" t="n">
-        <v>0</v>
-      </c>
-      <c r="M188" t="n">
-        <v>0</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O188" t="n">
-        <v>0</v>
-      </c>
-      <c r="P188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -9077,20 +9125,20 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>John Kelly Jr. (BAL)</t>
+          <t>Nyheim Hines (CLE)</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D189" t="n">
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -9098,30 +9146,14 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0</v>
-      </c>
-      <c r="O189" t="n">
-        <v>0</v>
-      </c>
-      <c r="P189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -9129,14 +9161,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Chase Edmonds (TB)</t>
+          <t>Nick Chubb (CLE)</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D190" t="n">
-        <v>-87</v>
+        <v>-86</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -9165,14 +9197,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Brennan Clay (DEN)</t>
+          <t>Royce Freeman (CLE)</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D191" t="n">
-        <v>-88</v>
+        <v>-87</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -9201,20 +9233,20 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tim Flanders (NO)</t>
+          <t>Patrick Ricard (BAL)</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D192" t="n">
-        <v>-89</v>
+        <v>-88</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -9222,14 +9254,30 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -9237,20 +9285,20 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Willie Carter (CHI)</t>
+          <t>John Kelly Jr. (BAL)</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="D193" t="n">
-        <v>-90</v>
+        <v>-89</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -9258,14 +9306,30 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -9273,51 +9337,35 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Myles Gaskin (MIN)</t>
+          <t>Chase Edmonds (TB)</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="D194" t="n">
-        <v>7</v>
+        <v>-90</v>
       </c>
       <c r="E194" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J194" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>0</v>
-      </c>
-      <c r="M194" t="n">
-        <v>0</v>
-      </c>
-      <c r="N194" t="n">
-        <v>0</v>
-      </c>
-      <c r="O194" t="n">
-        <v>0</v>
-      </c>
-      <c r="P194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -9325,51 +9373,35 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Michael Burton (DEN)</t>
+          <t>Brennan Clay (DEN)</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="D195" t="n">
-        <v>-111</v>
+        <v>-91</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="n">
-        <v>1</v>
-      </c>
-      <c r="O195" t="n">
-        <v>2</v>
-      </c>
-      <c r="P195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -9377,20 +9409,20 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Raheem Blackshear (CAR)</t>
+          <t>Tim Flanders (NO)</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D196" t="n">
-        <v>-93</v>
+        <v>-92</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -9398,30 +9430,14 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0</v>
-      </c>
-      <c r="L196" t="n">
-        <v>0</v>
-      </c>
-      <c r="M196" t="n">
-        <v>0</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0</v>
-      </c>
-      <c r="O196" t="n">
-        <v>0</v>
-      </c>
-      <c r="P196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -9429,20 +9445,20 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tyreik McAllister (LV)</t>
+          <t>Willie Carter (CHI)</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D197" t="n">
-        <v>-94</v>
+        <v>-93</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -9450,30 +9466,14 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0</v>
-      </c>
-      <c r="L197" t="n">
-        <v>0</v>
-      </c>
-      <c r="M197" t="n">
-        <v>0</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0</v>
-      </c>
-      <c r="O197" t="n">
-        <v>0</v>
-      </c>
-      <c r="P197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -9481,32 +9481,32 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Julius Chestnut (TEN)</t>
+          <t>JaMycal Hasty (NE)</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="D198" t="n">
-        <v>-95</v>
+        <v>-102</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J198" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
@@ -9533,32 +9533,32 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Adam Prentice (NO)</t>
+          <t>Myles Gaskin (MIN)</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D199" t="n">
-        <v>-96</v>
+        <v>2</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F199" t="n">
         <v>2</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O199" t="n">
         <v>0</v>
@@ -9585,26 +9585,26 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nick Bellore (WAS)</t>
+          <t>Michael Burton (DEN)</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="D200" t="n">
-        <v>-97</v>
+        <v>-116</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -9619,13 +9619,13 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N200" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O200" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P200" t="n">
         <v>0</v>
@@ -9637,20 +9637,20 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Jeremy McNichols (WAS)</t>
+          <t>Chris Rodriguez Jr. (WAS)</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>-98</v>
+        <v>-97</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G201" t="n">
         <v>0</v>

--- a/RB/2024/RB_Analysis.xlsx
+++ b/RB/2024/RB_Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saquon Barkley (PHI)</t>
+          <t>Alvin Kamara (NO)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -531,40 +531,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>84.40000000000001</v>
+        <v>106.6</v>
       </c>
       <c r="H2" t="n">
-        <v>28.1</v>
+        <v>26.7</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>117</v>
+        <v>90.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>17.7</v>
+        <v>43.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -573,50 +573,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alvin Kamara (NO)</t>
+          <t>Derrick Henry (BAL)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.32</v>
+        <v>9.98</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>81.7</v>
+        <v>93.5</v>
       </c>
       <c r="H3" t="n">
-        <v>27.2</v>
+        <v>23.4</v>
       </c>
       <c r="I3" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
-        <v>44</v>
+        <v>11.2</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -625,50 +625,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>James Cook (BUF)</t>
+          <t>Saquon Barkley (PHI)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.21</v>
+        <v>9.93</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>60.5</v>
+        <v>98</v>
       </c>
       <c r="H4" t="n">
-        <v>20.2</v>
+        <v>24.5</v>
       </c>
       <c r="I4" t="n">
-        <v>13.7</v>
+        <v>18.2</v>
       </c>
       <c r="J4" t="n">
-        <v>62.7</v>
+        <v>108.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>32.3</v>
+        <v>21.2</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -677,47 +677,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Derrick Henry (BAL)</t>
+          <t>Kenneth Walker III (SEA)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.21</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7</v>
-      </c>
       <c r="N5" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>11.7</v>
+        <v>21</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -729,47 +729,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kenneth Walker III (SEA)</t>
+          <t>Jordan Mason (SF)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.11</v>
+        <v>8.1</v>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>18.9</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>22.8</v>
       </c>
       <c r="J6" t="n">
-        <v>103</v>
+        <v>111.8</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>14.2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -781,50 +781,50 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Breece Hall (NYJ)</t>
+          <t>Aaron Jones (MIN)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.09</v>
+        <v>7.68</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>61</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>20.3</v>
+        <v>18.1</v>
       </c>
       <c r="I7" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>56.7</v>
+        <v>80.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="M7" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>40</v>
+        <v>35.8</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -833,50 +833,50 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>De'Von Achane (MIA)</t>
+          <t>Jonathan Taylor (IND)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7.08</v>
+        <v>7.61</v>
       </c>
       <c r="D8" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>61.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>20.4</v>
+        <v>18.2</v>
       </c>
       <c r="I8" t="n">
-        <v>14.3</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>87.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="N8" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
-        <v>57.7</v>
+        <v>19.2</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -885,50 +885,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>J.K. Dobbins (LAC)</t>
+          <t>Kyren Williams (LAR)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.93</v>
+        <v>7.55</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="n">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>51.4</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>17.1</v>
+        <v>20.4</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>18.2</v>
       </c>
       <c r="J9" t="n">
-        <v>103.3</v>
+        <v>64.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>4.7</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -937,47 +937,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Josh Jacobs (GB)</t>
+          <t>Joe Mixon (HOU)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.86</v>
+        <v>7.4</v>
       </c>
       <c r="D10" t="n">
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>92</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
         <v>22</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8.300000000000001</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -989,50 +989,50 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jonathan Taylor (IND)</t>
+          <t>Jahmyr Gibbs (DET)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.79</v>
+        <v>7.09</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>52.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>71.2</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>19</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -1041,50 +1041,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aaron Jones (MIN)</t>
+          <t>David Montgomery (DET)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.74</v>
+        <v>6.99</v>
       </c>
       <c r="D12" t="n">
         <v>-2</v>
       </c>
       <c r="E12" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>54.5</v>
+        <v>69.5</v>
       </c>
       <c r="H12" t="n">
-        <v>18.2</v>
+        <v>17.4</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="J12" t="n">
-        <v>76</v>
+        <v>67.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>32.3</v>
+        <v>23.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1093,50 +1093,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kyren Williams (LAR)</t>
+          <t>J.K. Dobbins (LAC)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.73</v>
+        <v>6.97</v>
       </c>
       <c r="D13" t="n">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>61.2</v>
+        <v>60.6</v>
       </c>
       <c r="H13" t="n">
-        <v>20.4</v>
+        <v>15.2</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>54.7</v>
+        <v>85.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="n">
-        <v>19.3</v>
+        <v>11</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1145,47 +1145,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jordan Mason (SF)</t>
+          <t>Brian Robinson Jr. (WAS)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.7</v>
+        <v>6.88</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>50.4</v>
+        <v>63.5</v>
       </c>
       <c r="H14" t="n">
-        <v>16.8</v>
+        <v>15.9</v>
       </c>
       <c r="I14" t="n">
-        <v>22.3</v>
+        <v>16.5</v>
       </c>
       <c r="J14" t="n">
-        <v>108</v>
+        <v>76.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
-        <v>6.7</v>
+        <v>17</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1197,50 +1197,50 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Joe Mixon (HOU)</t>
+          <t>James Cook (BUF)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.7</v>
+        <v>6.83</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>-3</v>
       </c>
       <c r="E15" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>34.8</v>
+        <v>66.3</v>
       </c>
       <c r="H15" t="n">
-        <v>17.4</v>
+        <v>16.6</v>
       </c>
       <c r="I15" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="J15" t="n">
-        <v>92</v>
+        <v>56.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>22</v>
+        <v>26.5</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
@@ -1249,50 +1249,50 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>David Montgomery (DET)</t>
+          <t>Chuba Hubbard (CAR)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.61</v>
+        <v>6.78</v>
       </c>
       <c r="D16" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>54.5</v>
+        <v>63</v>
       </c>
       <c r="H16" t="n">
-        <v>18.2</v>
+        <v>15.8</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>13.8</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M16" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N16" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
@@ -1301,47 +1301,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brian Robinson Jr. (WAS)</t>
+          <t>Isiah Pacheco (KC)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.48</v>
+        <v>6.6</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>43.2</v>
+        <v>31.9</v>
       </c>
       <c r="H17" t="n">
-        <v>14.4</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J17" t="n">
-        <v>68.7</v>
+        <v>67.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>18.7</v>
+        <v>27</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1353,50 +1353,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jahmyr Gibbs (DET)</t>
+          <t>Breece Hall (NYJ)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6.28</v>
+        <v>6.42</v>
       </c>
       <c r="D18" t="n">
         <v>-4</v>
       </c>
       <c r="E18" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>51.3</v>
+        <v>64.8</v>
       </c>
       <c r="H18" t="n">
-        <v>17.1</v>
+        <v>16.2</v>
       </c>
       <c r="I18" t="n">
-        <v>13.3</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>69</v>
+        <v>43.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M18" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>25.3</v>
+        <v>33.5</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19">
@@ -1405,50 +1405,50 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Zach Charbonnet (SEA)</t>
+          <t>Tony Pollard (TEN)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.19</v>
+        <v>6.31</v>
       </c>
       <c r="D19" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>55.7</v>
+        <v>58.3</v>
       </c>
       <c r="H19" t="n">
-        <v>18.6</v>
+        <v>14.6</v>
       </c>
       <c r="I19" t="n">
-        <v>13.3</v>
+        <v>15.2</v>
       </c>
       <c r="J19" t="n">
-        <v>47</v>
+        <v>61.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N19" t="n">
         <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>25.3</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1457,50 +1457,50 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bijan Robinson (ATL)</t>
+          <t>Zach Charbonnet (SEA)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>6.14</v>
       </c>
       <c r="D20" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E20" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>45.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="I20" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="J20" t="n">
-        <v>65.3</v>
+        <v>39</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
@@ -1509,47 +1509,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Isiah Pacheco (KC)</t>
+          <t>Bijan Robinson (ATL)</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.96</v>
+        <v>6.03</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>31.9</v>
+        <v>56.9</v>
       </c>
       <c r="H21" t="n">
-        <v>16</v>
+        <v>14.2</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>13.8</v>
       </c>
       <c r="J21" t="n">
-        <v>67.5</v>
+        <v>56</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M21" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>27</v>
+        <v>33.8</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1565,43 +1565,43 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.39</v>
+        <v>5.84</v>
       </c>
       <c r="D22" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E22" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>42.2</v>
+        <v>60.5</v>
       </c>
       <c r="H22" t="n">
-        <v>14.1</v>
+        <v>15.1</v>
       </c>
       <c r="I22" t="n">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
-        <v>63</v>
+        <v>73.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="M22" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
-        <v>14.3</v>
+        <v>13</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1613,50 +1613,50 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chuba Hubbard (CAR)</t>
+          <t>Kareem Hunt (KC)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.19</v>
+        <v>5.74</v>
       </c>
       <c r="D23" t="n">
-        <v>-3</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" t="n">
+        <v>69</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>64</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O23" t="n">
-        <v>22.3</v>
+        <v>16</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1665,47 +1665,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rhamondre Stevenson (NE)</t>
+          <t>Josh Jacobs (GB)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5.18</v>
+        <v>5.59</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>38.9</v>
+        <v>43.1</v>
       </c>
       <c r="H24" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O24" t="n">
         <v>13</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>5</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1717,47 +1717,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tony Pollard (TEN)</t>
+          <t>Jerome Ford (CLE)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.12</v>
+        <v>5.57</v>
       </c>
       <c r="D25" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E25" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>39.5</v>
+        <v>51.8</v>
       </c>
       <c r="H25" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>52.7</v>
+        <v>50.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M25" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="N25" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>22.3</v>
+        <v>21.2</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1769,50 +1769,50 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Zack Moss (CIN)</t>
+          <t>De'Von Achane (MIA)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.97</v>
+        <v>5.54</v>
       </c>
       <c r="D26" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E26" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>40.5</v>
+        <v>67.2</v>
       </c>
       <c r="H26" t="n">
-        <v>13.5</v>
+        <v>16.8</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>13.2</v>
       </c>
       <c r="J26" t="n">
-        <v>45.3</v>
+        <v>41.2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="M26" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>23</v>
+        <v>46.8</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27">
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.94</v>
+        <v>5.47</v>
       </c>
       <c r="D27" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="E27" t="n">
         <v>3.9</v>
@@ -1873,47 +1873,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Travis Etienne Jr. (JAC)</t>
+          <t>Rhamondre Stevenson (NE)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.94</v>
+        <v>5.34</v>
       </c>
       <c r="D28" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E28" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>39.2</v>
+        <v>47.1</v>
       </c>
       <c r="H28" t="n">
-        <v>13.1</v>
+        <v>11.8</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>16.2</v>
       </c>
       <c r="J28" t="n">
-        <v>54.7</v>
+        <v>66.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N28" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
-        <v>12.7</v>
+        <v>8.5</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1925,47 +1925,47 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jerome Ford (CLE)</t>
+          <t>D'Andre Swift (CHI)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4.77</v>
+        <v>5.31</v>
       </c>
       <c r="D29" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>36.3</v>
+        <v>48.9</v>
       </c>
       <c r="H29" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="I29" t="n">
-        <v>9.699999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="J29" t="n">
-        <v>48.3</v>
+        <v>40.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N29" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O29" t="n">
-        <v>19.3</v>
+        <v>29.5</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -1977,50 +1977,50 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Najee Harris (PIT)</t>
+          <t>Zack Moss (CIN)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.57</v>
+        <v>5.18</v>
       </c>
       <c r="D30" t="n">
+        <v>-11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M30" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
+      <c r="N30" t="n">
         <v>3.8</v>
       </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="H30" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3</v>
-      </c>
       <c r="O30" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
@@ -2029,47 +2029,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Austin Ekeler (WAS)</t>
+          <t>Travis Etienne Jr. (JAC)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.45</v>
+        <v>5.06</v>
       </c>
       <c r="D31" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E31" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
-        <v>35.4</v>
+        <v>46.2</v>
       </c>
       <c r="H31" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I31" t="n">
         <v>11.8</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J31" t="n">
-        <v>27.7</v>
+        <v>53.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O31" t="n">
-        <v>40.3</v>
+        <v>12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2081,50 +2081,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Braelon Allen (NYJ)</t>
+          <t>Najee Harris (PIT)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.96</v>
+        <v>4.98</v>
       </c>
       <c r="D32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E32" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>32.1</v>
+        <v>41.2</v>
       </c>
       <c r="H32" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="I32" t="n">
-        <v>6.3</v>
+        <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N32" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O32" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2133,47 +2133,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Roschon Johnson (CHI)</t>
+          <t>Austin Ekeler (WAS)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.96</v>
+        <v>4.9</v>
       </c>
       <c r="D33" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>10.2</v>
+        <v>35.4</v>
       </c>
       <c r="H33" t="n">
-        <v>10.2</v>
+        <v>11.8</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>27.7</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>32</v>
+        <v>40.3</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2185,50 +2185,50 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alexander Mattison (LV)</t>
+          <t>Justice Hill (BAL)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.87</v>
+        <v>4.57</v>
       </c>
       <c r="D34" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E34" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>35.7</v>
+        <v>45.7</v>
       </c>
       <c r="H34" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>26.7</v>
+        <v>40.2</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
@@ -2237,47 +2237,47 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rachaad White (TB)</t>
+          <t>Bucky Irving (TB)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.71</v>
+        <v>4.33</v>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>28.4</v>
+        <v>35.7</v>
       </c>
       <c r="H35" t="n">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="I35" t="n">
-        <v>10.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>22</v>
+        <v>50.8</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="N35" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>32.7</v>
+        <v>8.5</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2289,47 +2289,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bucky Irving (TB)</t>
+          <t>Rachaad White (TB)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.62</v>
+        <v>4.31</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E36" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>23.2</v>
+        <v>38.8</v>
       </c>
       <c r="H36" t="n">
-        <v>7.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>8.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="J36" t="n">
-        <v>51.3</v>
+        <v>28.8</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>9.300000000000001</v>
+        <v>33.2</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2341,47 +2341,47 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rico Dowdle (DAL)</t>
+          <t>Alexander Mattison (LV)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.58</v>
+        <v>4.23</v>
       </c>
       <c r="D37" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="E37" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="F37" t="n">
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>35.8</v>
+        <v>41.7</v>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>10.4</v>
       </c>
       <c r="I37" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="J37" t="n">
-        <v>33.5</v>
+        <v>21.8</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M37" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="P37" t="n">
         <v>0.2</v>
@@ -2393,50 +2393,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Emanuel Wilson (GB)</t>
+          <t>Antonio Gibson (NE)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.37</v>
+        <v>4.08</v>
       </c>
       <c r="D38" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>24.2</v>
+        <v>30.7</v>
       </c>
       <c r="H38" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J38" t="n">
-        <v>35</v>
+        <v>38.8</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>12.3</v>
+        <v>20.5</v>
       </c>
       <c r="P38" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2445,47 +2445,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Antonio Gibson (NE)</t>
+          <t>Chase Brown (CIN)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.37</v>
+        <v>4.06</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="E39" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>19.8</v>
+        <v>40.5</v>
       </c>
       <c r="H39" t="n">
-        <v>6.6</v>
+        <v>10.1</v>
       </c>
       <c r="I39" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="J39" t="n">
-        <v>47.7</v>
+        <v>46</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="N39" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -2497,50 +2497,50 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Justice Hill (BAL)</t>
+          <t>Braelon Allen (NYJ)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.23</v>
+        <v>4.05</v>
       </c>
       <c r="D40" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E40" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>24.1</v>
+        <v>37.7</v>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="J40" t="n">
-        <v>19.3</v>
+        <v>32.5</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M40" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O40" t="n">
-        <v>27.7</v>
+        <v>14.2</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41">
@@ -2549,50 +2549,50 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tyjae Spears (TEN)</t>
+          <t>Rico Dowdle (DAL)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.96</v>
+        <v>3.95</v>
       </c>
       <c r="D41" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N41" t="n">
         <v>3</v>
       </c>
-      <c r="G41" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="H41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>16</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O41" t="n">
-        <v>25.3</v>
+        <v>18.5</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
@@ -2601,47 +2601,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Javonte Williams (DEN)</t>
+          <t>Roschon Johnson (CHI)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.92</v>
+        <v>3.92</v>
       </c>
       <c r="D42" t="n">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>20.9</v>
+        <v>18.8</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J42" t="n">
-        <v>17.3</v>
+        <v>28</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M42" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="O42" t="n">
-        <v>25.7</v>
+        <v>16</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2653,47 +2653,47 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D'Andre Swift (CHI)</t>
+          <t>Javonte Williams (DEN)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.92</v>
+        <v>3.69</v>
       </c>
       <c r="D43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E43" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="H43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2</v>
-      </c>
       <c r="N43" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O43" t="n">
-        <v>15.3</v>
+        <v>20</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -2705,47 +2705,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ty Chandler (MIN)</t>
+          <t>Tyjae Spears (TEN)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.86</v>
+        <v>3.61</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E44" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M44" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="H44" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I44" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J44" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
-        <v>8.300000000000001</v>
+        <v>19</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -2757,47 +2757,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tyler Badie (DEN)</t>
+          <t>Emari Demercado (ARI)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.78</v>
+        <v>3.52</v>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5</v>
-      </c>
       <c r="J45" t="n">
-        <v>43</v>
+        <v>19.2</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2809,32 +2809,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chase Brown (CIN)</t>
+          <t>Emanuel Wilson (GB)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.7</v>
+        <v>3.32</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E46" t="n">
-        <v>7.4</v>
+        <v>4.6</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>17.3</v>
+        <v>26.9</v>
       </c>
       <c r="H46" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="I46" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="J46" t="n">
-        <v>34.7</v>
+        <v>33</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O46" t="n">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
@@ -2861,50 +2861,50 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cam Akers (HOU)</t>
+          <t>Tyler Allgeier (ATL)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.66</v>
+        <v>3.18</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>12.4</v>
+        <v>22.8</v>
       </c>
       <c r="H47" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O47" t="n">
         <v>8</v>
       </c>
-      <c r="J47" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2</v>
-      </c>
-      <c r="O47" t="n">
-        <v>5.5</v>
-      </c>
       <c r="P47" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2913,32 +2913,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ty Johnson (BUF)</t>
+          <t>Cam Akers (HOU)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.57</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>18.5</v>
+        <v>17.7</v>
       </c>
       <c r="H48" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>35.3</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N48" t="n">
         <v>1.3</v>
       </c>
-      <c r="N48" t="n">
-        <v>2</v>
-      </c>
       <c r="O48" t="n">
-        <v>20.3</v>
+        <v>3.7</v>
       </c>
       <c r="P48" t="n">
         <v>0.3</v>
@@ -2965,47 +2965,47 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Gus Edwards (LAC)</t>
+          <t>Tank Bigsby (JAC)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.55</v>
+        <v>3.09</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>10.6</v>
+        <v>17.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="I49" t="n">
-        <v>10.7</v>
+        <v>5.2</v>
       </c>
       <c r="J49" t="n">
-        <v>31.3</v>
+        <v>43</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3017,47 +3017,47 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Jamaal Williams (NO)</t>
+          <t>Miles Sanders (CAR)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.53</v>
+        <v>3.02</v>
       </c>
       <c r="D50" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="E50" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>16.9</v>
+        <v>26.3</v>
       </c>
       <c r="H50" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="I50" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="J50" t="n">
-        <v>25.3</v>
+        <v>22.8</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="O50" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -3069,47 +3069,47 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Miles Sanders (CAR)</t>
+          <t>Tyler Badie (DEN)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.49</v>
+        <v>3.02</v>
       </c>
       <c r="D51" t="n">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="E51" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>18.7</v>
+        <v>9.4</v>
       </c>
       <c r="H51" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="J51" t="n">
-        <v>19.7</v>
+        <v>28.7</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>6</v>
+        <v>-0.7</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3121,47 +3121,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zamir White (LV)</t>
+          <t>Ty Chandler (MIN)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.49</v>
+        <v>2.81</v>
       </c>
       <c r="D52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>14.8</v>
+        <v>19</v>
       </c>
       <c r="H52" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I52" t="n">
-        <v>10.7</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
-        <v>34</v>
+        <v>29.2</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>5.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3173,47 +3173,47 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ezekiel Elliott (DAL)</t>
+          <t>Zamir White (LV)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.46</v>
+        <v>2.81</v>
       </c>
       <c r="D53" t="n">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="F53" t="n">
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>23.7</v>
+        <v>17.8</v>
       </c>
       <c r="H53" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>12.2</v>
       </c>
       <c r="J53" t="n">
-        <v>20.2</v>
+        <v>38</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O53" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3225,47 +3225,47 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ray Davis (BUF)</t>
+          <t>Cordarrelle Patterson (PIT)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.4</v>
+        <v>2.76</v>
       </c>
       <c r="D54" t="n">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>16.8</v>
+        <v>17.6</v>
       </c>
       <c r="H54" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="I54" t="n">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>21.3</v>
+        <v>23</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="O54" t="n">
-        <v>4.7</v>
+        <v>8.5</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3277,50 +3277,50 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tyler Allgeier (ATL)</t>
+          <t>Ty Johnson (BUF)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.37</v>
+        <v>2.74</v>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="E55" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>12.8</v>
+        <v>24.8</v>
       </c>
       <c r="H55" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="I55" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="J55" t="n">
-        <v>35.3</v>
+        <v>6.8</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="O55" t="n">
-        <v>4</v>
+        <v>15.2</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="56">
@@ -3329,32 +3329,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Carson Steele (KC)</t>
+          <t>Dare Ogunbowale (HOU)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.3</v>
+        <v>2.69</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="E56" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>9.1</v>
+        <v>25.8</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="I56" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>33</v>
+        <v>2.5</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="N56" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="O56" t="n">
-        <v>0.7</v>
+        <v>24.5</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
@@ -3381,47 +3381,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tank Bigsby (JAC)</t>
+          <t>Jamaal Williams (NO)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.23</v>
+        <v>2.63</v>
       </c>
       <c r="D57" t="n">
-        <v>11</v>
+        <v>-8</v>
       </c>
       <c r="E57" t="n">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>8.199999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="H57" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="I57" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="J57" t="n">
-        <v>27.3</v>
+        <v>21.8</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3433,47 +3433,47 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Emari Demercado (ARI)</t>
+          <t>Jeremy McNichols (WAS)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.16</v>
+        <v>2.55</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="E58" t="n">
-        <v>13.3</v>
+        <v>7.7</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>9.9</v>
+        <v>20.5</v>
       </c>
       <c r="H58" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="I58" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="J58" t="n">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="K58" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N58" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="O58" t="n">
-        <v>8.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3489,43 +3489,43 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.09</v>
+        <v>2.53</v>
       </c>
       <c r="D59" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E59" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>14.8</v>
+        <v>20.4</v>
       </c>
       <c r="H59" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="J59" t="n">
-        <v>13.3</v>
+        <v>21.5</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O59" t="n">
         <v>2</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2</v>
-      </c>
-      <c r="O59" t="n">
-        <v>2.7</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3537,47 +3537,47 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jaylen Warren (PIT)</t>
+          <t>Ray Davis (BUF)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.09</v>
+        <v>2.37</v>
       </c>
       <c r="D60" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E60" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>13.2</v>
+        <v>17.9</v>
       </c>
       <c r="H60" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I60" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="J60" t="n">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M60" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="N60" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="O60" t="n">
-        <v>9.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3589,47 +3589,47 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jeff Wilson Jr. (MIA)</t>
+          <t>Ezekiel Elliott (DAL)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.82</v>
+        <v>2.33</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>-14</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>7.2</v>
+        <v>23.7</v>
       </c>
       <c r="H61" t="n">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="I61" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>13.3</v>
+        <v>20.2</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M61" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="N61" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3641,32 +3641,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D'Onta Foreman (CLE)</t>
+          <t>Jaylen Warren (PIT)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.82</v>
+        <v>2.33</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>6.6</v>
+        <v>13.2</v>
       </c>
       <c r="H62" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="I62" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="J62" t="n">
-        <v>15.7</v>
+        <v>18</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="N62" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3693,32 +3693,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kyle Juszczyk (SF)</t>
+          <t>Gus Edwards (LAC)</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.76</v>
+        <v>2.11</v>
       </c>
       <c r="D63" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
         <v>12.5</v>
       </c>
       <c r="H63" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3727,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N63" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="O63" t="n">
-        <v>21.7</v>
+        <v>0.5</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3745,47 +3745,47 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cordarrelle Patterson (PIT)</t>
+          <t>Trey Benson (ARI)</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O64" t="n">
         <v>3</v>
-      </c>
-      <c r="G64" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="H64" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O64" t="n">
-        <v>5</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3797,32 +3797,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pierre Strong Jr. (CLE)</t>
+          <t>Carson Steele (KC)</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="I65" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>2.5</v>
+        <v>26.2</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="N65" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="O65" t="n">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3849,47 +3849,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Raheem Mostert (MIA)</t>
+          <t>Hunter Luepke (DAL)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
         <v>1.5</v>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>9</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2</v>
-      </c>
       <c r="N66" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O66" t="n">
-        <v>10</v>
+        <v>18.2</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3901,32 +3901,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hunter Luepke (DAL)</t>
+          <t>Kyle Juszczyk (SF)</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="D67" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>14.1</v>
+        <v>14.7</v>
       </c>
       <c r="H67" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3935,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N67" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O67" t="n">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -3953,32 +3953,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Samaje Perine (KC)</t>
+          <t>Pierre Strong Jr. (CLE)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="D68" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>10.3</v>
+        <v>6.5</v>
       </c>
       <c r="H68" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J68" t="n">
-        <v>8.300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3987,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="N68" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O68" t="n">
-        <v>9.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4005,47 +4005,47 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tyrone Tracy Jr. (NYG)</t>
+          <t>Raheem Mostert (MIA)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="D69" t="n">
-        <v>-12</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>11</v>
+        <v>3.9</v>
       </c>
       <c r="H69" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="I69" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
         <v>3</v>
       </c>
-      <c r="J69" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O69" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -4057,47 +4057,47 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dare Ogunbowale (HOU)</t>
+          <t>MarShawn Lloyd (GB)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="D70" t="n">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="E70" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>15</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
         <v>3</v>
-      </c>
-      <c r="G70" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O70" t="n">
-        <v>17</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -4109,32 +4109,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MarShawn Lloyd (GB)</t>
+          <t>Tyrone Tracy Jr. (NYG)</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="E71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="H71" t="n">
         <v>2.8</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O71" t="n">
-        <v>3</v>
+        <v>10.2</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4165,43 +4165,43 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="D72" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="H72" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="I72" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="J72" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N72" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O72" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -4213,47 +4213,47 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>D'Ernest Johnson (JAC)</t>
+          <t>Samaje Perine (KC)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>-17</v>
       </c>
       <c r="E73" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>3.8</v>
+        <v>17.7</v>
       </c>
       <c r="H73" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="I73" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="J73" t="n">
-        <v>19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N73" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4265,47 +4265,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Trey Benson (ARI)</t>
+          <t>Jaylen Wright (MIA)</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="D74" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="F74" t="n">
         <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="H74" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="I74" t="n">
         <v>5.3</v>
       </c>
       <c r="J74" t="n">
-        <v>10.3</v>
+        <v>17.7</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="O74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4317,32 +4317,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Dameon Pierce (HOU)</t>
+          <t>D'Onta Foreman (CLE)</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="E75" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>16</v>
+        <v>12.2</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4351,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -4369,32 +4369,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Audric Estime (DEN)</t>
+          <t>Jeff Wilson Jr. (MIA)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>-3</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
       <c r="H76" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4403,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4421,32 +4421,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kenneth Gainwell (PHI)</t>
+          <t>J.J. Taylor (HOU)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="D77" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="J77" t="n">
-        <v>2.7</v>
+        <v>10.5</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="O77" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4473,32 +4473,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Blake Corum (LAR)</t>
+          <t>Dameon Pierce (HOU)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="D78" t="n">
+        <v>14</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I78" t="n">
         <v>3</v>
       </c>
-      <c r="E78" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4</v>
-      </c>
       <c r="J78" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4525,32 +4525,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Alec Ingold (MIA)</t>
+          <t>Audric Estime (DEN)</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="D79" t="n">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="E79" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="I79" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.7</v>
+        <v>14</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -4577,32 +4577,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J.J. Taylor (HOU)</t>
+          <t>Ronnie Rivers (LAR)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H80" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>12.8</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4629,32 +4629,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ronnie Rivers (LAR)</t>
+          <t>Kenneth Gainwell (PHI)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="D81" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E81" t="n">
-        <v>6.3</v>
+        <v>3.4</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="H81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I81" t="n">
         <v>1.2</v>
       </c>
-      <c r="I81" t="n">
-        <v>1.3</v>
-      </c>
       <c r="J81" t="n">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4663,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -4681,32 +4681,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Jaylen Wright (MIA)</t>
+          <t>Blake Corum (LAR)</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F82" t="n">
         <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="I82" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -4733,32 +4733,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Deuce Vaughn (DAL)</t>
+          <t>D'Ernest Johnson (JAC)</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="D83" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="H83" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I83" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>12.7</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -4767,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="O83" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -4785,47 +4785,47 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ameer Abdullah (LV)</t>
+          <t>Deuce Vaughn (DAL)</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.99</v>
+        <v>1.11</v>
       </c>
       <c r="D84" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="E84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
         <v>0.5</v>
       </c>
-      <c r="F84" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.3</v>
-      </c>
       <c r="N84" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="O84" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -4837,47 +4837,47 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hassan Haskins (LAC)</t>
+          <t>Alec Ingold (MIA)</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="E85" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
-      <c r="G85" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>11</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -4889,32 +4889,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Velus Jones Jr. (CHI)</t>
+          <t>Ameer Abdullah (LV)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>-7</v>
       </c>
       <c r="E86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
         <v>5.5</v>
       </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J86" t="n">
-        <v>11</v>
+        <v>0.2</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -4941,32 +4941,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DeeJay Dallas (ARI)</t>
+          <t>Velus Jones Jr. (CHI)</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="D87" t="n">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>2</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4975,13 +4975,13 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -4993,32 +4993,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Travis Homer (CHI)</t>
+          <t>Sean Tucker (TB)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E88" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0.8</v>
       </c>
       <c r="I88" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J88" t="n">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5027,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -5045,47 +5045,47 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Khalil Herbert (CHI)</t>
+          <t>Travis Homer (CHI)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="D89" t="n">
-        <v>-27</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F89" t="n">
         <v>2</v>
       </c>
-      <c r="F89" t="n">
-        <v>3</v>
-      </c>
       <c r="G89" t="n">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="I89" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="J89" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -5097,32 +5097,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sione Vaki (DET)</t>
+          <t>Mike Boone (CAR)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="D90" t="n">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -5149,32 +5149,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mike Boone (CAR)</t>
+          <t>Sione Vaki (DET)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H91" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -5183,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -5201,32 +5201,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Isaac Guerendo (SF)</t>
+          <t>JaMycal Hasty (NE)</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="D92" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E92" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0.6</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="J92" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5253,32 +5253,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Isaiah Davis (NYJ)</t>
+          <t>Tyreik McAllister (LV)</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F93" t="n">
         <v>2</v>
       </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0.6</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -5305,35 +5305,51 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AJ Dillon (GB)</t>
+          <t>Hassan Haskins (LAC)</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5341,35 +5357,51 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jonathan Ward (PIT)</t>
+          <t>Isaiah Davis (NYJ)</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="D95" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+        <v>0.6</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5377,35 +5409,51 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Troy Hairston II (HOU)</t>
+          <t>Khalil Herbert (CHI)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>-27</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+        <v>3.3</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5417,31 +5465,47 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="D97" t="n">
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5449,35 +5513,51 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kimani Vidal (LAC)</t>
+          <t>Kenny McIntosh (SEA)</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5485,35 +5565,51 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Michael Wiley (WAS)</t>
+          <t>Eric Gray (NYG)</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5521,14 +5617,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Dillon Johnson (CAR)</t>
+          <t>Evan Hull (IND)</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -5557,14 +5653,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dylan Laube (LV)</t>
+          <t>Jabari Small (TEN)</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -5593,14 +5689,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ellis Merriweather (GB)</t>
+          <t>Troy Hairston II (HOU)</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -5629,14 +5725,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jack Colletto (PIT)</t>
+          <t>Dante Miller (NYG)</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -5665,14 +5761,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Rasheen Ali (BAL)</t>
+          <t>Michael Wiley (WAS)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -5701,14 +5797,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Jase McClellan (ATL)</t>
+          <t>Dillon Johnson (CAR)</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -5737,14 +5833,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Michael Carter (ARI)</t>
+          <t>Zavier Scott (MIN)</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D106" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -5773,14 +5869,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kene Nwangwu (NYJ)</t>
+          <t>Ellis Merriweather (GB)</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D107" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -5809,14 +5905,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sincere McCormick (LV)</t>
+          <t>Jase McClellan (ATL)</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D108" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -5845,14 +5941,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Shane Bannon (KC)</t>
+          <t>Tyrion Davis-Price (PHI)</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D109" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5881,14 +5977,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Xavier Omon (SF)</t>
+          <t>Jake Funk (JAC)</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D110" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -5917,14 +6013,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Taquan Mizzell (NYG)</t>
+          <t>Sincere McCormick (LV)</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="D111" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -5953,51 +6049,35 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jordan Mims (NO)</t>
+          <t>Jay Finley (CIN)</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="D112" t="n">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="E112" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6005,51 +6085,35 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Eric Gray (NYG)</t>
+          <t>Dantrell Savage (CAR)</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="D113" t="n">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="E113" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O113" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6057,51 +6121,35 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C.J. Ham (MIN)</t>
+          <t>Madison Hedgecock (NYG)</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="D114" t="n">
-        <v>-22</v>
+        <v>-7</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O114" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6113,10 +6161,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="D115" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
@@ -6161,32 +6209,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tyler Goodson (IND)</t>
+          <t>Isaac Guerendo (SF)</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="D116" t="n">
-        <v>-25</v>
+        <v>85</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -6195,13 +6243,13 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P116" t="n">
         <v>0</v>
@@ -6213,32 +6261,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kenny McIntosh (SEA)</t>
+          <t>C.J. Ham (MIN)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="D117" t="n">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="E117" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G117" t="n">
         <v>1.1</v>
       </c>
       <c r="H117" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I117" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -6247,13 +6295,13 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="P117" t="n">
         <v>0</v>
@@ -6265,51 +6313,35 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Sean Tucker (TB)</t>
+          <t>Ke'Shawn Vaughn (SF)</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="D118" t="n">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -6317,51 +6349,35 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>British Brooks (HOU)</t>
+          <t>Darrynton Evans (BUF)</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="D119" t="n">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6369,51 +6385,35 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Jeremy McNichols (WAS)</t>
+          <t>AJ Dillon (GB)</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="D120" t="n">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -6421,14 +6421,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ke'Shawn Vaughn (SF)</t>
+          <t>La'Mical Perine (PIT)</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D121" t="n">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -6457,14 +6457,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Darrynton Evans (BUF)</t>
+          <t>Clyde Edwards-Helaire (KC)</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D122" t="n">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -6493,14 +6493,14 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Clyde Edwards-Helaire (KC)</t>
+          <t>Salvon Ahmed (DEN)</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D123" t="n">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -6533,16 +6533,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D124" t="n">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -6550,14 +6550,30 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -6569,16 +6585,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D125" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -6621,10 +6637,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D126" t="n">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -6657,16 +6673,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D127" t="n">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -6705,20 +6721,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Khari Blasingame (CHI)</t>
+          <t>Andrew Beck (GB)</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D128" t="n">
-        <v>-24</v>
+        <v>-21</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -6726,30 +6742,14 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0</v>
-      </c>
-      <c r="P128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6757,20 +6757,20 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Andrew Beck (GB)</t>
+          <t>Jakob Johnson (NYG)</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D129" t="n">
-        <v>-25</v>
+        <v>-22</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -6778,14 +6778,30 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6793,20 +6809,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Jakob Johnson (NYG)</t>
+          <t>Jaret Patterson (LAC)</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D130" t="n">
-        <v>-26</v>
+        <v>-23</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -6814,30 +6830,14 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6845,20 +6845,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Jaret Patterson (LAC)</t>
+          <t>Reggie Gilliam (BUF)</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D131" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -6866,14 +6866,30 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6881,20 +6897,20 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Reggie Gilliam (BUF)</t>
+          <t>Jonathan Ward (PIT)</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D132" t="n">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -6902,30 +6918,14 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6937,16 +6937,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D133" t="n">
-        <v>-29</v>
+        <v>-26</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -6989,10 +6989,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D134" t="n">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D135" t="n">
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -7057,20 +7057,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Evan Hull (IND)</t>
+          <t>Kendre Miller (NO)</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D136" t="n">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -7078,14 +7078,30 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7093,14 +7109,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jabari Small (TEN)</t>
+          <t>Israel Abanikanda (NYJ)</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D137" t="n">
-        <v>-33</v>
+        <v>-30</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -7129,20 +7145,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kendre Miller (NO)</t>
+          <t>Julius Chestnut (TEN)</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D138" t="n">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -7181,14 +7197,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Israel Abanikanda (NYJ)</t>
+          <t>Brittain Brown (SEA)</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D139" t="n">
-        <v>-35</v>
+        <v>-32</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -7217,20 +7233,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tyreik McAllister (LV)</t>
+          <t>Kimani Vidal (LAC)</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D140" t="n">
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -7238,30 +7254,14 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0</v>
-      </c>
-      <c r="P140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -7269,20 +7269,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Julius Chestnut (TEN)</t>
+          <t>Louis Rees-Zammit (JAC)</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D141" t="n">
-        <v>-37</v>
+        <v>-34</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -7290,30 +7290,14 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -7321,14 +7305,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Brittain Brown (SEA)</t>
+          <t>Blake Watson (DEN)</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D142" t="n">
-        <v>-38</v>
+        <v>-35</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -7357,14 +7341,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dante Miller (NYG)</t>
+          <t>Emani Bailey (KC)</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D143" t="n">
-        <v>-39</v>
+        <v>-36</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -7393,14 +7377,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Louis Rees-Zammit (JAC)</t>
+          <t>Cody Schrader (LAR)</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D144" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -7429,14 +7413,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Blake Watson (DEN)</t>
+          <t>Dylan Laube (LV)</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D145" t="n">
-        <v>-41</v>
+        <v>-38</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -7465,14 +7449,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Emani Bailey (KC)</t>
+          <t>Jonathon Brooks (CAR)</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D146" t="n">
-        <v>-42</v>
+        <v>-39</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -7501,20 +7485,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Jacob Kibodi (NO)</t>
+          <t>Colson Yankoff (WAS)</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D147" t="n">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -7522,14 +7506,30 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -7537,14 +7537,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Cody Schrader (LAR)</t>
+          <t>Terrell Jennings (NE)</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D148" t="n">
-        <v>-44</v>
+        <v>-41</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -7573,14 +7573,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jonathon Brooks (CAR)</t>
+          <t>Trent Pennix (IND)</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D149" t="n">
-        <v>-45</v>
+        <v>-42</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -7609,20 +7609,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Colson Yankoff (WAS)</t>
+          <t>Ian Wheeler (CHI)</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D150" t="n">
-        <v>-46</v>
+        <v>-43</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -7630,30 +7630,14 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0</v>
-      </c>
-      <c r="P150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -7661,14 +7645,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Jalen Jackson (JAC)</t>
+          <t>Chris Collier (BAL)</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D151" t="n">
-        <v>-47</v>
+        <v>-44</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -7697,14 +7681,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Terrell Jennings (NE)</t>
+          <t>Owen Wright (BAL)</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D152" t="n">
-        <v>-48</v>
+        <v>-45</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -7733,14 +7717,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ian Wheeler (CHI)</t>
+          <t>Deneric Prince (MIA)</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D153" t="n">
-        <v>-49</v>
+        <v>-46</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -7769,14 +7753,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Chris Collier (BAL)</t>
+          <t>Robert Burns (ATL)</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D154" t="n">
-        <v>-50</v>
+        <v>-47</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -7805,14 +7789,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Owen Wright (BAL)</t>
+          <t>Carlos Washington Jr. (ATL)</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D155" t="n">
-        <v>-51</v>
+        <v>-48</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -7841,14 +7825,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Deneric Prince (MIA)</t>
+          <t>Rasheen Ali (BAL)</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D156" t="n">
-        <v>-52</v>
+        <v>-49</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -7877,14 +7861,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Zavier Scott (MIN)</t>
+          <t>Frank Gore Jr. (BUF)</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D157" t="n">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -7913,14 +7897,14 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Robert Burns (ATL)</t>
+          <t>George Holani (SEA)</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D158" t="n">
-        <v>-54</v>
+        <v>-51</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -7949,14 +7933,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Carlos Washington Jr. (ATL)</t>
+          <t>D.J. Williams (TB)</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D159" t="n">
-        <v>-55</v>
+        <v>-52</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -7985,20 +7969,20 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Scott Matlock (LAC)</t>
+          <t>Keilan Robinson (JAC)</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D160" t="n">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -8006,30 +7990,14 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>0</v>
-      </c>
-      <c r="M160" t="n">
-        <v>0</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0</v>
-      </c>
-      <c r="P160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -8037,14 +8005,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Frank Gore Jr. (BUF)</t>
+          <t>Elijah Mitchell (SF)</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D161" t="n">
-        <v>-57</v>
+        <v>-54</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -8073,20 +8041,20 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Will Shipley (PHI)</t>
+          <t>Chris Evans (CIN)</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D162" t="n">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -8094,30 +8062,14 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0</v>
-      </c>
-      <c r="P162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -8125,14 +8077,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>George Holani (SEA)</t>
+          <t>Javian Hawkins (TEN)</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D163" t="n">
-        <v>-59</v>
+        <v>-56</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -8161,14 +8113,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>D.J. Williams (TB)</t>
+          <t>Michael Carter (ARI)</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D164" t="n">
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -8197,20 +8149,20 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Keilan Robinson (JAC)</t>
+          <t>Will Shipley (PHI)</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D165" t="n">
-        <v>-61</v>
+        <v>-58</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -8218,14 +8170,30 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -8233,14 +8201,14 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Elijah Mitchell (SF)</t>
+          <t>Kendall Milton (CIN)</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D166" t="n">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -8269,20 +8237,20 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Chris Evans (CIN)</t>
+          <t>Adam Prentice (NO)</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D167" t="n">
-        <v>-63</v>
+        <v>-60</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -8290,14 +8258,30 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -8305,14 +8289,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Javian Hawkins (TEN)</t>
+          <t>Malik Davis (DAL)</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D168" t="n">
-        <v>-64</v>
+        <v>-61</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -8341,14 +8325,14 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Kendall Milton (CIN)</t>
+          <t>Kevin Harris (NE)</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D169" t="n">
-        <v>-65</v>
+        <v>-62</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -8377,20 +8361,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tyrion Davis-Price (PHI)</t>
+          <t>Gary Brightwell (FA)</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D170" t="n">
-        <v>-66</v>
+        <v>-63</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -8398,14 +8382,30 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -8413,20 +8413,20 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Adam Prentice (NO)</t>
+          <t>Avery Williams (ATL)</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D171" t="n">
-        <v>-67</v>
+        <v>-64</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O171" t="n">
         <v>0</v>
@@ -8465,14 +8465,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Malik Davis (DAL)</t>
+          <t>Kene Nwangwu (NYJ)</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D172" t="n">
-        <v>-68</v>
+        <v>-65</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -8501,20 +8501,20 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Kevin Harris (NE)</t>
+          <t>Keaontay Ingram (KC)</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D173" t="n">
-        <v>-69</v>
+        <v>-66</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -8522,14 +8522,30 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -8537,20 +8553,20 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Gary Brightwell (CLE)</t>
+          <t>Nick Bellore (WAS)</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D174" t="n">
-        <v>-70</v>
+        <v>-67</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -8558,14 +8574,30 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -8573,20 +8605,20 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Avery Williams (ATL)</t>
+          <t>Shane Bannon (KC)</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D175" t="n">
-        <v>-71</v>
+        <v>-68</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -8594,30 +8626,14 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0</v>
-      </c>
-      <c r="P175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8625,20 +8641,20 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Keaontay Ingram (KC)</t>
+          <t>Kenny Irons (CIN)</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D176" t="n">
-        <v>-72</v>
+        <v>-69</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -8646,30 +8662,14 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0</v>
-      </c>
-      <c r="M176" t="n">
-        <v>0</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0</v>
-      </c>
-      <c r="P176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -8677,20 +8677,20 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nick Bellore (WAS)</t>
+          <t>Anthony Alridge (WAS)</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D177" t="n">
-        <v>-73</v>
+        <v>-70</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -8698,30 +8698,14 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0</v>
-      </c>
-      <c r="P177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8729,14 +8713,14 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jay Finley (CIN)</t>
+          <t>Chad Simpson (WAS)</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D178" t="n">
-        <v>-74</v>
+        <v>-71</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -8765,14 +8749,14 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Kenny Irons (CIN)</t>
+          <t>Xavier Omon (SF)</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D179" t="n">
-        <v>-75</v>
+        <v>-72</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -8801,14 +8785,14 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Anthony Alridge (WAS)</t>
+          <t>Garrett Mills (NE)</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D180" t="n">
-        <v>-76</v>
+        <v>-73</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -8837,14 +8821,14 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Chad Simpson (WAS)</t>
+          <t>Samkon Gado (TEN)</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D181" t="n">
-        <v>-77</v>
+        <v>-74</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -8873,14 +8857,14 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Dantrell Savage (CAR)</t>
+          <t>Taquan Mizzell (NYG)</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D182" t="n">
-        <v>-78</v>
+        <v>-75</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -8909,14 +8893,14 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Samkon Gado (TEN)</t>
+          <t>Christian McCaffrey (SF)</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D183" t="n">
-        <v>-79</v>
+        <v>-76</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -8945,14 +8929,14 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Garrett Mills (NE)</t>
+          <t>Dalvin Cook (DAL)</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D184" t="n">
-        <v>-80</v>
+        <v>-77</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -8981,14 +8965,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Madison Hedgecock (NYG)</t>
+          <t>Nyheim Hines (CLE)</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D185" t="n">
-        <v>-81</v>
+        <v>-78</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -9017,14 +9001,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Kareem Hunt (KC)</t>
+          <t>Nick Chubb (CLE)</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D186" t="n">
-        <v>-82</v>
+        <v>-79</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -9053,14 +9037,14 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Christian McCaffrey (SF)</t>
+          <t>Royce Freeman (CLE)</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D187" t="n">
-        <v>-83</v>
+        <v>-80</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -9089,20 +9073,20 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dalvin Cook (DAL)</t>
+          <t>John Kelly Jr. (FA)</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D188" t="n">
-        <v>-84</v>
+        <v>-81</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -9110,14 +9094,30 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -9125,14 +9125,14 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nyheim Hines (CLE)</t>
+          <t>Chase Edmonds (TB)</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D189" t="n">
-        <v>-85</v>
+        <v>-82</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -9161,14 +9161,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Nick Chubb (CLE)</t>
+          <t>Brennan Clay (DEN)</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D190" t="n">
-        <v>-86</v>
+        <v>-83</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -9197,14 +9197,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Royce Freeman (CLE)</t>
+          <t>Tim Flanders (NO)</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D191" t="n">
-        <v>-87</v>
+        <v>-84</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -9233,20 +9233,20 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Patrick Ricard (BAL)</t>
+          <t>Willie Carter (CHI)</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D192" t="n">
-        <v>-88</v>
+        <v>-85</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -9254,30 +9254,14 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0</v>
-      </c>
-      <c r="L192" t="n">
-        <v>0</v>
-      </c>
-      <c r="M192" t="n">
-        <v>0</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O192" t="n">
-        <v>0</v>
-      </c>
-      <c r="P192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -9285,32 +9269,32 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>John Kelly Jr. (BAL)</t>
+          <t>Jordan Mims (NO)</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="D193" t="n">
-        <v>-89</v>
+        <v>-97</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
@@ -9337,20 +9321,20 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Chase Edmonds (TB)</t>
+          <t>Scott Matlock (LAC)</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="D194" t="n">
-        <v>-90</v>
+        <v>-87</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -9358,14 +9342,30 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -9373,35 +9373,51 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Brennan Clay (DEN)</t>
+          <t>Myles Gaskin (MIN)</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="D195" t="n">
-        <v>-91</v>
+        <v>7</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -9409,35 +9425,51 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tim Flanders (NO)</t>
+          <t>Michael Burton (DEN)</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="D196" t="n">
-        <v>-92</v>
+        <v>-110</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
+        <v>0.9</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -9445,35 +9477,51 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Willie Carter (CHI)</t>
+          <t>British Brooks (HOU)</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="D197" t="n">
-        <v>-93</v>
+        <v>-91</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -9481,47 +9529,47 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>JaMycal Hasty (NE)</t>
+          <t>Tyler Goodson (IND)</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="D198" t="n">
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="E198" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
         <v>3</v>
       </c>
       <c r="G198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O198" t="n">
         <v>0.7</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J198" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" t="n">
-        <v>0</v>
-      </c>
-      <c r="M198" t="n">
-        <v>0</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0</v>
-      </c>
-      <c r="O198" t="n">
-        <v>0</v>
       </c>
       <c r="P198" t="n">
         <v>0</v>
@@ -9533,32 +9581,32 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Myles Gaskin (MIN)</t>
+          <t>Patrick Ricard (BAL)</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>2</v>
+        <v>-122</v>
       </c>
       <c r="E199" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G199" t="n">
-        <v>-0.3</v>
+        <v>6</v>
       </c>
       <c r="H199" t="n">
-        <v>-0.2</v>
+        <v>1.5</v>
       </c>
       <c r="I199" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="K199" t="n">
         <v>0</v>
@@ -9570,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O199" t="n">
         <v>0</v>
@@ -9585,26 +9633,26 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Michael Burton (DEN)</t>
+          <t>DeeJay Dallas (ARI)</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>-116</v>
+        <v>-123</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G200" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H200" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -9619,13 +9667,13 @@
         <v>0</v>
       </c>
       <c r="M200" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O200" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P200" t="n">
         <v>0</v>
@@ -9637,14 +9685,14 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chris Rodriguez Jr. (WAS)</t>
+          <t>Khari Blasingame (CHI)</t>
         </is>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>-97</v>
+        <v>-94</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -9680,6 +9728,58 @@
         <v>0</v>
       </c>
       <c r="P201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Chris Rodriguez Jr. (WAS)</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-95</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
         <v>0</v>
       </c>
     </row>
